--- a/PSA-Population-Data.xlsx
+++ b/PSA-Population-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-LGU-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93801FBB-B2C4-47FD-BFBB-0327FF4529B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A04483-E701-412C-8A89-02C4C9744288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BFD2E54C-1A91-4A5D-B156-F03082DB8563}"/>
+    <workbookView xWindow="1485" yWindow="3060" windowWidth="19920" windowHeight="11685" xr2:uid="{BFD2E54C-1A91-4A5D-B156-F03082DB8563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10581,11 +10581,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989B4E9D-2CA6-4073-8780-3A99D4209796}">
   <dimension ref="A1:K1844"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:K1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30466,21 +30466,21 @@
         <v>12</v>
       </c>
       <c r="G620" s="15">
-        <v>59639</v>
+        <v>14063</v>
       </c>
       <c r="H620" s="16">
-        <v>63662</v>
+        <v>15757</v>
       </c>
       <c r="I620" s="21">
-        <v>214.44</v>
+        <v>119.37</v>
       </c>
       <c r="J620" s="21">
-        <f t="shared" si="18"/>
-        <v>278.11509046819623</v>
+        <f>IFERROR(G620/$I620, "")</f>
+        <v>117.81017005947892</v>
       </c>
       <c r="K620" s="21">
-        <f t="shared" si="19"/>
-        <v>296.87558291363553</v>
+        <f>IFERROR(H620/$I620, "")</f>
+        <v>132.00134037027729</v>
       </c>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
@@ -30498,21 +30498,21 @@
         <v>32</v>
       </c>
       <c r="G621" s="15">
-        <v>101082</v>
+        <v>59639</v>
       </c>
       <c r="H621" s="16">
-        <v>109245</v>
+        <v>63662</v>
       </c>
       <c r="I621" s="21">
-        <v>589.36</v>
+        <v>214.44</v>
       </c>
       <c r="J621" s="21">
         <f t="shared" si="18"/>
-        <v>171.51147006922764</v>
+        <v>278.11509046819623</v>
       </c>
       <c r="K621" s="21">
         <f t="shared" si="19"/>
-        <v>185.3620876883399</v>
+        <v>296.87558291363553</v>
       </c>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
@@ -30530,21 +30530,21 @@
         <v>8</v>
       </c>
       <c r="G622" s="15">
-        <v>50841</v>
+        <v>101082</v>
       </c>
       <c r="H622" s="16">
-        <v>55334</v>
+        <v>109245</v>
       </c>
       <c r="I622" s="21">
-        <v>173.69</v>
+        <v>589.36</v>
       </c>
       <c r="J622" s="21">
         <f t="shared" si="18"/>
-        <v>292.71115205250737</v>
+        <v>171.51147006922764</v>
       </c>
       <c r="K622" s="21">
         <f t="shared" si="19"/>
-        <v>318.57907766710809</v>
+        <v>185.3620876883399</v>
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
@@ -30562,21 +30562,21 @@
         <v>32</v>
       </c>
       <c r="G623" s="15">
-        <v>59149</v>
+        <v>50841</v>
       </c>
       <c r="H623" s="16">
-        <v>60198</v>
+        <v>55334</v>
       </c>
       <c r="I623" s="21">
-        <v>197.9</v>
+        <v>173.69</v>
       </c>
       <c r="J623" s="21">
         <f t="shared" si="18"/>
-        <v>298.88327438100049</v>
+        <v>292.71115205250737</v>
       </c>
       <c r="K623" s="21">
         <f t="shared" si="19"/>
-        <v>304.18393127842342</v>
+        <v>318.57907766710809</v>
       </c>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
@@ -30594,21 +30594,21 @@
         <v>15</v>
       </c>
       <c r="G624" s="15">
-        <v>14063</v>
+        <v>59149</v>
       </c>
       <c r="H624" s="16">
-        <v>15757</v>
+        <v>60198</v>
       </c>
       <c r="I624" s="21">
-        <v>119.37</v>
+        <v>197.9</v>
       </c>
       <c r="J624" s="21">
         <f t="shared" si="18"/>
-        <v>117.81017005947892</v>
+        <v>298.88327438100049</v>
       </c>
       <c r="K624" s="21">
         <f t="shared" si="19"/>
-        <v>132.00134037027729</v>
+        <v>304.18393127842342</v>
       </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
@@ -66952,7 +66952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BB5CB3-D1D8-4F95-ABC1-D5426449C9AC}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/PSA-Population-Data.xlsx
+++ b/PSA-Population-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-LGU-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A04483-E701-412C-8A89-02C4C9744288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21F41F3-7A0A-4BEF-AE96-F0EDC58950DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="3060" windowWidth="19920" windowHeight="11685" xr2:uid="{BFD2E54C-1A91-4A5D-B156-F03082DB8563}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="19920" windowHeight="11685" xr2:uid="{BFD2E54C-1A91-4A5D-B156-F03082DB8563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10582,10 +10582,10 @@
   <dimension ref="A1:K1844"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G1090" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G1103" sqref="G1103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45965,18 +45965,18 @@
         <v>8057</v>
       </c>
       <c r="H1103" s="16">
-        <v>7856</v>
+        <v>8704</v>
       </c>
       <c r="I1103" s="21">
-        <v>27.96</v>
+        <v>39.07</v>
       </c>
       <c r="J1103" s="21">
-        <f t="shared" si="34"/>
-        <v>288.16165951359085</v>
+        <f>IFERROR(G1103/$I1103, "")</f>
+        <v>206.21960583567954</v>
       </c>
       <c r="K1103" s="21">
-        <f t="shared" si="35"/>
-        <v>280.97281831187411</v>
+        <f>IFERROR(H1103/$I1103, "")</f>
+        <v>222.77962631174813</v>
       </c>
     </row>
     <row r="1104" spans="1:11" x14ac:dyDescent="0.25">
@@ -46093,18 +46093,18 @@
         <v>8057</v>
       </c>
       <c r="H1107" s="16">
-        <v>8704</v>
+        <v>7856</v>
       </c>
       <c r="I1107" s="21">
-        <v>39.07</v>
+        <v>27.96</v>
       </c>
       <c r="J1107" s="21">
-        <f t="shared" si="34"/>
-        <v>206.21960583567954</v>
+        <f>IFERROR(G1107/$I1107, "")</f>
+        <v>288.16165951359085</v>
       </c>
       <c r="K1107" s="21">
-        <f t="shared" si="35"/>
-        <v>222.77962631174813</v>
+        <f>IFERROR(H1107/$I1107, "")</f>
+        <v>280.97281831187411</v>
       </c>
     </row>
     <row r="1108" spans="1:11" x14ac:dyDescent="0.25">
